--- a/Examples/PE_P/Example_3/nest_s1_in.xlsx
+++ b/Examples/PE_P/Example_3/nest_s1_in.xlsx
@@ -472,7 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -489,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
